--- a/data/ds1_food_footprints.xlsx
+++ b/data/ds1_food_footprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kate\Documents\AI4GoodLab\carbon-footprint-tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F302A02-61F1-4109-9FB2-E034453EB892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD26D355-C14B-494C-B610-DC88386429CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,9 +261,6 @@
     <t>MAYONNAISE</t>
   </si>
   <si>
-    <t>TEMPE'</t>
-  </si>
-  <si>
     <t>EGG PASTA*</t>
   </si>
   <si>
@@ -810,9 +807,6 @@
     <t>BANANA</t>
   </si>
   <si>
-    <t>CARROB</t>
-  </si>
-  <si>
     <t>CHERRY</t>
   </si>
   <si>
@@ -993,9 +987,6 @@
     <t>SPICIES</t>
   </si>
   <si>
-    <t>CHILLY</t>
-  </si>
-  <si>
     <t>GINGER</t>
   </si>
   <si>
@@ -1224,9 +1215,6 @@
     <t>SOLE</t>
   </si>
   <si>
-    <t>SWARDFISH</t>
-  </si>
-  <si>
     <t>TROUT</t>
   </si>
   <si>
@@ -1345,6 +1333,18 @@
   </si>
   <si>
     <t>Item</t>
+  </si>
+  <si>
+    <t>TEMPEH</t>
+  </si>
+  <si>
+    <t>CAROB</t>
+  </si>
+  <si>
+    <t>SWORDFISH</t>
+  </si>
+  <si>
+    <t>CHILI</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1879,7 @@
   <dimension ref="A1:X999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1910,13 +1910,13 @@
   <sheetData>
     <row r="1" spans="1:24" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>61</v>
+        <v>419</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -3574,13 +3574,13 @@
     </row>
     <row r="27" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="13">
         <v>5</v>
@@ -3638,13 +3638,13 @@
     </row>
     <row r="28" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
@@ -3702,13 +3702,13 @@
     </row>
     <row r="29" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="D29" s="13">
         <v>1</v>
@@ -3766,13 +3766,13 @@
     </row>
     <row r="30" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -3830,13 +3830,13 @@
     </row>
     <row r="31" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="13">
         <v>1</v>
@@ -3894,13 +3894,13 @@
     </row>
     <row r="32" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -3958,13 +3958,13 @@
     </row>
     <row r="33" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="13">
         <v>1</v>
@@ -4022,13 +4022,13 @@
     </row>
     <row r="34" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="13">
         <v>1</v>
@@ -4086,13 +4086,13 @@
     </row>
     <row r="35" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="13">
         <v>2</v>
@@ -4150,13 +4150,13 @@
     </row>
     <row r="36" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="13">
         <v>1</v>
@@ -4214,13 +4214,13 @@
     </row>
     <row r="37" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="D37" s="13">
         <v>13</v>
@@ -4278,13 +4278,13 @@
     </row>
     <row r="38" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="13">
         <v>2</v>
@@ -4342,13 +4342,13 @@
     </row>
     <row r="39" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="D39" s="13">
         <v>1</v>
@@ -4406,13 +4406,13 @@
     </row>
     <row r="40" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="13">
         <v>4</v>
@@ -4470,13 +4470,13 @@
     </row>
     <row r="41" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D41" s="13">
         <v>1</v>
@@ -4534,13 +4534,13 @@
     </row>
     <row r="42" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="13">
         <v>1</v>
@@ -4598,13 +4598,13 @@
     </row>
     <row r="43" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" s="13">
         <v>1</v>
@@ -4662,13 +4662,13 @@
     </row>
     <row r="44" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" s="13">
         <v>5</v>
@@ -4726,13 +4726,13 @@
     </row>
     <row r="45" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="13">
         <v>1</v>
@@ -4790,13 +4790,13 @@
     </row>
     <row r="46" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D46" s="13">
         <v>16</v>
@@ -4854,13 +4854,13 @@
     </row>
     <row r="47" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D47" s="13">
         <v>6</v>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="48" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>18</v>
@@ -4982,13 +4982,13 @@
     </row>
     <row r="49" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="13">
         <v>1</v>
@@ -5046,13 +5046,13 @@
     </row>
     <row r="50" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="D50" s="13">
         <v>2</v>
@@ -5110,13 +5110,13 @@
     </row>
     <row r="51" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="D51" s="13">
         <v>1</v>
@@ -5174,13 +5174,13 @@
     </row>
     <row r="52" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D52" s="13">
         <v>1</v>
@@ -5238,13 +5238,13 @@
     </row>
     <row r="53" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="13">
         <v>2</v>
@@ -5302,13 +5302,13 @@
     </row>
     <row r="54" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="D54" s="13">
         <v>1</v>
@@ -5366,13 +5366,13 @@
     </row>
     <row r="55" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D55" s="13">
         <v>1</v>
@@ -5430,13 +5430,13 @@
     </row>
     <row r="56" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="D56" s="13">
         <v>1</v>
@@ -5494,13 +5494,13 @@
     </row>
     <row r="57" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57" s="13">
         <v>1</v>
@@ -5558,13 +5558,13 @@
     </row>
     <row r="58" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D58" s="13">
         <v>6</v>
@@ -5622,13 +5622,13 @@
     </row>
     <row r="59" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="D59" s="13">
         <v>1</v>
@@ -5686,13 +5686,13 @@
     </row>
     <row r="60" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D60" s="13">
         <v>1</v>
@@ -5750,13 +5750,13 @@
     </row>
     <row r="61" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="D61" s="13">
         <v>2</v>
@@ -5814,13 +5814,13 @@
     </row>
     <row r="62" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -5878,13 +5878,13 @@
     </row>
     <row r="63" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D63" s="13">
         <v>2</v>
@@ -5942,13 +5942,13 @@
     </row>
     <row r="64" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D64" s="13">
         <v>1</v>
@@ -6006,13 +6006,13 @@
     </row>
     <row r="65" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D65" s="13">
         <v>2</v>
@@ -6070,13 +6070,13 @@
     </row>
     <row r="66" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="D66" s="13">
         <v>45</v>
@@ -6134,13 +6134,13 @@
     </row>
     <row r="67" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D67" s="13">
         <v>5</v>
@@ -6198,13 +6198,13 @@
     </row>
     <row r="68" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D68" s="13">
         <v>2</v>
@@ -6262,13 +6262,13 @@
     </row>
     <row r="69" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D69" s="13">
         <v>9</v>
@@ -6326,13 +6326,13 @@
     </row>
     <row r="70" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D70" s="13">
         <v>6</v>
@@ -6390,13 +6390,13 @@
     </row>
     <row r="71" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D71" s="13">
         <v>5</v>
@@ -6454,13 +6454,13 @@
     </row>
     <row r="72" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D72" s="13">
         <v>48</v>
@@ -6518,13 +6518,13 @@
     </row>
     <row r="73" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D73" s="13">
         <v>2</v>
@@ -6582,13 +6582,13 @@
     </row>
     <row r="74" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="D74" s="13">
         <v>1</v>
@@ -6646,13 +6646,13 @@
     </row>
     <row r="75" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="D75" s="13">
         <v>9</v>
@@ -6710,13 +6710,13 @@
     </row>
     <row r="76" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D76" s="13">
         <v>7</v>
@@ -6774,13 +6774,13 @@
     </row>
     <row r="77" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="D77" s="13">
         <v>14</v>
@@ -6838,13 +6838,13 @@
     </row>
     <row r="78" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D78" s="13">
         <v>9</v>
@@ -6902,13 +6902,13 @@
     </row>
     <row r="79" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="D79" s="13">
         <v>4</v>
@@ -6966,13 +6966,13 @@
     </row>
     <row r="80" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D80" s="13">
         <v>3</v>
@@ -7028,13 +7028,13 @@
     </row>
     <row r="81" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D81" s="13">
         <v>7</v>
@@ -7092,13 +7092,13 @@
     </row>
     <row r="82" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="D82" s="13">
         <v>4</v>
@@ -7156,13 +7156,13 @@
     </row>
     <row r="83" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D83" s="13">
         <v>4</v>
@@ -7220,13 +7220,13 @@
     </row>
     <row r="84" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="D84" s="13">
         <v>1</v>
@@ -7284,13 +7284,13 @@
     </row>
     <row r="85" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D85" s="13">
         <v>1</v>
@@ -7348,13 +7348,13 @@
     </row>
     <row r="86" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="D86" s="13">
         <v>1</v>
@@ -7412,13 +7412,13 @@
     </row>
     <row r="87" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" s="13">
         <v>1</v>
@@ -7476,13 +7476,13 @@
     </row>
     <row r="88" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="D88" s="13">
         <v>1</v>
@@ -7540,13 +7540,13 @@
     </row>
     <row r="89" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="D89" s="13">
         <v>2</v>
@@ -7604,13 +7604,13 @@
     </row>
     <row r="90" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D90" s="13">
         <v>2</v>
@@ -7668,13 +7668,13 @@
     </row>
     <row r="91" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D91" s="13">
         <v>3</v>
@@ -7730,13 +7730,13 @@
     </row>
     <row r="92" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D92" s="13">
         <v>22</v>
@@ -7794,13 +7794,13 @@
     </row>
     <row r="93" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="D93" s="13">
         <v>2</v>
@@ -7858,13 +7858,13 @@
     </row>
     <row r="94" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D94" s="13">
         <v>1</v>
@@ -7922,13 +7922,13 @@
     </row>
     <row r="95" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D95" s="13">
         <v>4</v>
@@ -7986,13 +7986,13 @@
     </row>
     <row r="96" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="D96" s="13">
         <v>1</v>
@@ -8050,13 +8050,13 @@
     </row>
     <row r="97" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="D97" s="13">
         <v>17</v>
@@ -8114,13 +8114,13 @@
     </row>
     <row r="98" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D98" s="13">
         <v>3</v>
@@ -8176,13 +8176,13 @@
     </row>
     <row r="99" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D99" s="13">
         <v>1</v>
@@ -8240,13 +8240,13 @@
     </row>
     <row r="100" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D100" s="13">
         <v>1</v>
@@ -8304,13 +8304,13 @@
     </row>
     <row r="101" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D101" s="13">
         <v>1</v>
@@ -8368,11 +8368,11 @@
     </row>
     <row r="102" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D102" s="13">
         <v>183</v>
@@ -8430,13 +8430,13 @@
     </row>
     <row r="103" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D103" s="13">
         <v>172</v>
@@ -8494,13 +8494,13 @@
     </row>
     <row r="104" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D104" s="13">
         <v>3</v>
@@ -8556,13 +8556,13 @@
     </row>
     <row r="105" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D105" s="13">
         <v>11</v>
@@ -8620,13 +8620,13 @@
     </row>
     <row r="106" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="D106" s="13">
         <v>8</v>
@@ -8684,13 +8684,13 @@
     </row>
     <row r="107" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D107" s="13">
         <v>1</v>
@@ -8748,13 +8748,13 @@
     </row>
     <row r="108" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D108" s="13">
         <v>14</v>
@@ -8812,13 +8812,13 @@
     </row>
     <row r="109" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D109" s="13">
         <v>1</v>
@@ -8876,13 +8876,13 @@
     </row>
     <row r="110" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D110" s="13">
         <v>1</v>
@@ -8940,13 +8940,13 @@
     </row>
     <row r="111" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="D111" s="13">
         <v>1</v>
@@ -9004,13 +9004,13 @@
     </row>
     <row r="112" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D112" s="13">
         <v>2</v>
@@ -9068,13 +9068,13 @@
     </row>
     <row r="113" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D113" s="13">
         <v>4</v>
@@ -9132,13 +9132,13 @@
     </row>
     <row r="114" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D114" s="13">
         <v>27</v>
@@ -9196,13 +9196,13 @@
     </row>
     <row r="115" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D115" s="13">
         <v>2</v>
@@ -9260,13 +9260,13 @@
     </row>
     <row r="116" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D116" s="13">
         <v>1</v>
@@ -9324,13 +9324,13 @@
     </row>
     <row r="117" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D117" s="13">
         <v>3</v>
@@ -9386,13 +9386,13 @@
     </row>
     <row r="118" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D118" s="13">
         <v>3</v>
@@ -9448,13 +9448,13 @@
     </row>
     <row r="119" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D119" s="13">
         <v>3</v>
@@ -9510,13 +9510,13 @@
     </row>
     <row r="120" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D120" s="13">
         <v>3</v>
@@ -9572,13 +9572,13 @@
     </row>
     <row r="121" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="D121" s="13">
         <v>1</v>
@@ -9636,13 +9636,13 @@
     </row>
     <row r="122" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D122" s="13">
         <v>51</v>
@@ -9700,13 +9700,13 @@
     </row>
     <row r="123" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D123" s="13">
         <v>2</v>
@@ -9764,13 +9764,13 @@
     </row>
     <row r="124" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D124" s="13">
         <v>1</v>
@@ -9828,13 +9828,13 @@
     </row>
     <row r="125" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D125" s="13">
         <v>55</v>
@@ -9892,13 +9892,13 @@
     </row>
     <row r="126" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D126" s="13">
         <v>55</v>
@@ -9956,13 +9956,13 @@
     </row>
     <row r="127" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="D127" s="13">
         <v>7</v>
@@ -10020,13 +10020,13 @@
     </row>
     <row r="128" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B128" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D128" s="13">
         <v>364</v>
@@ -10084,13 +10084,13 @@
     </row>
     <row r="129" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B129" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D129" s="13">
         <v>2</v>
@@ -10148,13 +10148,13 @@
     </row>
     <row r="130" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B130" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D130" s="13">
         <v>135</v>
@@ -10212,13 +10212,13 @@
     </row>
     <row r="131" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="D131" s="13">
         <v>2</v>
@@ -10276,13 +10276,13 @@
     </row>
     <row r="132" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B132" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D132" s="13">
         <v>2</v>
@@ -10340,13 +10340,13 @@
     </row>
     <row r="133" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B133" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D133" s="13">
         <v>4</v>
@@ -10404,13 +10404,13 @@
     </row>
     <row r="134" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B134" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D134" s="13">
         <v>1</v>
@@ -10468,13 +10468,13 @@
     </row>
     <row r="135" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B135" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D135" s="13">
         <v>131</v>
@@ -10532,13 +10532,13 @@
     </row>
     <row r="136" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="D136" s="13">
         <v>100</v>
@@ -10596,13 +10596,13 @@
     </row>
     <row r="137" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B137" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D137" s="13">
         <v>1</v>
@@ -10660,11 +10660,11 @@
     </row>
     <row r="138" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D138" s="13">
         <v>1</v>
@@ -10720,11 +10720,11 @@
     </row>
     <row r="139" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D139" s="13">
         <v>12</v>
@@ -10775,20 +10775,20 @@
         <v>20</v>
       </c>
       <c r="T139" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U139" s="12"/>
       <c r="V139" s="20"/>
     </row>
     <row r="140" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="D140" s="13">
         <v>98</v>
@@ -10846,13 +10846,13 @@
     </row>
     <row r="141" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D141" s="13">
         <v>1</v>
@@ -10910,13 +10910,13 @@
     </row>
     <row r="142" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D142" s="13">
         <v>6</v>
@@ -10974,13 +10974,13 @@
     </row>
     <row r="143" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D143" s="13">
         <v>2</v>
@@ -11038,13 +11038,13 @@
     </row>
     <row r="144" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B144" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D144" s="13">
         <v>1</v>
@@ -11102,13 +11102,13 @@
     </row>
     <row r="145" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="D145" s="13">
         <v>14</v>
@@ -11166,13 +11166,13 @@
     </row>
     <row r="146" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B146" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D146" s="13">
         <v>4</v>
@@ -11223,20 +11223,20 @@
         <v>27</v>
       </c>
       <c r="T146" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U146" s="12"/>
       <c r="V146" s="20"/>
     </row>
     <row r="147" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D147" s="13">
         <v>20</v>
@@ -11294,13 +11294,13 @@
     </row>
     <row r="148" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D148" s="13">
         <v>8</v>
@@ -11358,13 +11358,13 @@
     </row>
     <row r="149" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="D149" s="13">
         <v>2</v>
@@ -11422,13 +11422,13 @@
     </row>
     <row r="150" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D150" s="13">
         <v>5</v>
@@ -11486,13 +11486,13 @@
     </row>
     <row r="151" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="D151" s="13">
         <v>1</v>
@@ -11550,13 +11550,13 @@
     </row>
     <row r="152" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D152" s="13">
         <v>2</v>
@@ -11614,13 +11614,13 @@
     </row>
     <row r="153" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D153" s="13">
         <v>4</v>
@@ -11678,13 +11678,13 @@
     </row>
     <row r="154" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="D154" s="13">
         <v>4</v>
@@ -11742,13 +11742,13 @@
     </row>
     <row r="155" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D155" s="13">
         <v>20</v>
@@ -11806,13 +11806,13 @@
     </row>
     <row r="156" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D156" s="13">
         <v>1</v>
@@ -11870,13 +11870,13 @@
     </row>
     <row r="157" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D157" s="13">
         <v>1</v>
@@ -11934,13 +11934,13 @@
     </row>
     <row r="158" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D158" s="13">
         <v>7</v>
@@ -11998,13 +11998,13 @@
     </row>
     <row r="159" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D159" s="13">
         <v>1</v>
@@ -12062,13 +12062,13 @@
     </row>
     <row r="160" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B160" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D160" s="13">
         <v>2</v>
@@ -12126,13 +12126,13 @@
     </row>
     <row r="161" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="D161" s="13">
         <v>4</v>
@@ -12190,13 +12190,13 @@
     </row>
     <row r="162" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B162" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="C162" s="12" t="s">
         <v>231</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>232</v>
       </c>
       <c r="D162" s="13">
         <v>3</v>
@@ -12252,13 +12252,13 @@
     </row>
     <row r="163" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B163" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B163" s="11" t="s">
-        <v>231</v>
-      </c>
       <c r="C163" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D163" s="13">
         <v>2</v>
@@ -12316,13 +12316,13 @@
     </row>
     <row r="164" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B164" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B164" s="11" t="s">
-        <v>231</v>
-      </c>
       <c r="C164" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D164" s="13">
         <v>2</v>
@@ -12380,13 +12380,13 @@
     </row>
     <row r="165" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B165" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B165" s="11" t="s">
-        <v>231</v>
-      </c>
       <c r="C165" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D165" s="13">
         <v>7</v>
@@ -12444,13 +12444,13 @@
     </row>
     <row r="166" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B166" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B166" s="11" t="s">
-        <v>231</v>
-      </c>
       <c r="C166" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D166" s="13">
         <v>31</v>
@@ -12508,13 +12508,13 @@
     </row>
     <row r="167" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B167" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B167" s="11" t="s">
-        <v>231</v>
-      </c>
       <c r="C167" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D167" s="13">
         <v>1</v>
@@ -12572,13 +12572,13 @@
     </row>
     <row r="168" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B168" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B168" s="11" t="s">
-        <v>231</v>
-      </c>
       <c r="C168" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D168" s="13">
         <v>2</v>
@@ -12636,13 +12636,13 @@
     </row>
     <row r="169" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B169" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C169" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>240</v>
       </c>
       <c r="D169" s="13">
         <v>59</v>
@@ -12700,13 +12700,13 @@
     </row>
     <row r="170" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D170" s="13">
         <v>7</v>
@@ -12764,13 +12764,13 @@
     </row>
     <row r="171" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D171" s="13">
         <v>4</v>
@@ -12828,13 +12828,13 @@
     </row>
     <row r="172" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D172" s="13">
         <v>9</v>
@@ -12892,13 +12892,13 @@
     </row>
     <row r="173" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="D173" s="13">
         <v>2</v>
@@ -12956,13 +12956,13 @@
     </row>
     <row r="174" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D174" s="13">
         <v>7</v>
@@ -13020,13 +13020,13 @@
     </row>
     <row r="175" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D175" s="13">
         <v>3</v>
@@ -13082,13 +13082,13 @@
     </row>
     <row r="176" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D176" s="13">
         <v>15</v>
@@ -13146,13 +13146,13 @@
     </row>
     <row r="177" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D177" s="13">
         <v>1</v>
@@ -13210,13 +13210,13 @@
     </row>
     <row r="178" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D178" s="13">
         <v>12</v>
@@ -13274,13 +13274,13 @@
     </row>
     <row r="179" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D179" s="13">
         <v>6</v>
@@ -13338,13 +13338,13 @@
     </row>
     <row r="180" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D180" s="13">
         <v>6</v>
@@ -13402,13 +13402,13 @@
     </row>
     <row r="181" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D181" s="13">
         <v>12</v>
@@ -13466,13 +13466,13 @@
     </row>
     <row r="182" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D182" s="13">
         <v>12</v>
@@ -13530,13 +13530,13 @@
     </row>
     <row r="183" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D183" s="13">
         <v>6</v>
@@ -13587,20 +13587,20 @@
         <v>27</v>
       </c>
       <c r="T183" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U183" s="12"/>
       <c r="V183" s="20"/>
     </row>
     <row r="184" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D184" s="13">
         <v>3</v>
@@ -13656,13 +13656,13 @@
     </row>
     <row r="185" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D185" s="13">
         <v>3</v>
@@ -13718,13 +13718,13 @@
     </row>
     <row r="186" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D186" s="13">
         <v>1</v>
@@ -13782,13 +13782,13 @@
     </row>
     <row r="187" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D187" s="13">
         <v>1</v>
@@ -13846,13 +13846,13 @@
     </row>
     <row r="188" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D188" s="13">
         <v>9</v>
@@ -13910,13 +13910,13 @@
     </row>
     <row r="189" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D189" s="13">
         <v>1</v>
@@ -13974,13 +13974,13 @@
     </row>
     <row r="190" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B190" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C190" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="C190" s="12" t="s">
-        <v>263</v>
       </c>
       <c r="D190" s="13">
         <v>8</v>
@@ -14038,13 +14038,13 @@
     </row>
     <row r="191" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D191" s="13">
         <v>3</v>
@@ -14100,13 +14100,13 @@
     </row>
     <row r="192" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D192" s="13">
         <v>2</v>
@@ -14164,13 +14164,13 @@
     </row>
     <row r="193" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D193" s="13">
         <v>1</v>
@@ -14228,13 +14228,13 @@
     </row>
     <row r="194" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D194" s="13">
         <v>2</v>
@@ -14292,13 +14292,13 @@
     </row>
     <row r="195" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D195" s="13">
         <v>27</v>
@@ -14356,13 +14356,13 @@
     </row>
     <row r="196" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B196" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D196" s="13">
         <v>17</v>
@@ -14420,13 +14420,13 @@
     </row>
     <row r="197" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" s="12" t="s">
         <v>269</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C197" s="12" t="s">
-        <v>271</v>
       </c>
       <c r="D197" s="13">
         <v>7</v>
@@ -14477,20 +14477,20 @@
         <v>27</v>
       </c>
       <c r="T197" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U197" s="12"/>
       <c r="V197" s="20"/>
     </row>
     <row r="198" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B198" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D198" s="13">
         <v>2</v>
@@ -14548,13 +14548,13 @@
     </row>
     <row r="199" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B199" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D199" s="13">
         <v>5</v>
@@ -14612,13 +14612,13 @@
     </row>
     <row r="200" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B200" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D200" s="13">
         <v>12</v>
@@ -14676,13 +14676,13 @@
     </row>
     <row r="201" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B201" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D201" s="13">
         <v>3</v>
@@ -14738,13 +14738,13 @@
     </row>
     <row r="202" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B202" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D202" s="13">
         <v>1</v>
@@ -14802,13 +14802,13 @@
     </row>
     <row r="203" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B203" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D203" s="13">
         <v>44</v>
@@ -14866,13 +14866,13 @@
     </row>
     <row r="204" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B204" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D204" s="13">
         <v>14</v>
@@ -14930,13 +14930,13 @@
     </row>
     <row r="205" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C205" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="B205" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C205" s="12" t="s">
-        <v>280</v>
       </c>
       <c r="D205" s="13">
         <v>3</v>
@@ -14992,13 +14992,13 @@
     </row>
     <row r="206" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B206" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D206" s="13">
         <v>4</v>
@@ -15056,13 +15056,13 @@
     </row>
     <row r="207" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B207" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D207" s="13">
         <v>11</v>
@@ -15120,13 +15120,13 @@
     </row>
     <row r="208" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B208" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D208" s="13">
         <v>2</v>
@@ -15184,13 +15184,13 @@
     </row>
     <row r="209" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B209" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D209" s="13">
         <v>12</v>
@@ -15248,13 +15248,13 @@
     </row>
     <row r="210" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B210" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D210" s="13">
         <v>5</v>
@@ -15312,13 +15312,13 @@
     </row>
     <row r="211" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B211" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D211" s="13">
         <v>4</v>
@@ -15376,11 +15376,11 @@
     </row>
     <row r="212" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B212" s="11"/>
       <c r="C212" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D212" s="13">
         <v>6</v>
@@ -15438,13 +15438,13 @@
     </row>
     <row r="213" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B213" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D213" s="13">
         <v>13</v>
@@ -15502,13 +15502,13 @@
     </row>
     <row r="214" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C214" s="12" t="s">
         <v>289</v>
-      </c>
-      <c r="B214" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C214" s="12" t="s">
-        <v>291</v>
       </c>
       <c r="D214" s="13">
         <v>11</v>
@@ -15566,13 +15566,13 @@
     </row>
     <row r="215" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B215" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D215" s="13">
         <v>3</v>
@@ -15628,13 +15628,13 @@
     </row>
     <row r="216" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B216" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D216" s="13">
         <v>5</v>
@@ -15692,13 +15692,13 @@
     </row>
     <row r="217" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B217" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D217" s="13">
         <v>1</v>
@@ -15756,13 +15756,13 @@
     </row>
     <row r="218" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B218" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D218" s="13">
         <v>1</v>
@@ -15820,13 +15820,13 @@
     </row>
     <row r="219" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B219" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D219" s="13">
         <v>10</v>
@@ -15884,13 +15884,13 @@
     </row>
     <row r="220" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B220" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D220" s="13">
         <v>4</v>
@@ -15948,13 +15948,13 @@
     </row>
     <row r="221" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B221" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D221" s="13">
         <v>5</v>
@@ -16012,13 +16012,13 @@
     </row>
     <row r="222" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B222" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D222" s="13">
         <v>35</v>
@@ -16076,13 +16076,13 @@
     </row>
     <row r="223" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B223" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D223" s="13">
         <v>3</v>
@@ -16138,13 +16138,13 @@
     </row>
     <row r="224" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C224" s="12" t="s">
         <v>300</v>
-      </c>
-      <c r="B224" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C224" s="12" t="s">
-        <v>302</v>
       </c>
       <c r="D224" s="13">
         <v>1</v>
@@ -16202,13 +16202,13 @@
     </row>
     <row r="225" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B225" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D225" s="13">
         <v>2</v>
@@ -16266,13 +16266,13 @@
     </row>
     <row r="226" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B226" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
       <c r="D226" s="13">
         <v>1</v>
@@ -16330,13 +16330,13 @@
     </row>
     <row r="227" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B227" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D227" s="13">
         <v>1</v>
@@ -16394,13 +16394,13 @@
     </row>
     <row r="228" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B228" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D228" s="13">
         <v>35</v>
@@ -16458,13 +16458,13 @@
     </row>
     <row r="229" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B229" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D229" s="13">
         <v>2</v>
@@ -16522,13 +16522,13 @@
     </row>
     <row r="230" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230" s="12" t="s">
         <v>307</v>
-      </c>
-      <c r="B230" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C230" s="12" t="s">
-        <v>310</v>
       </c>
       <c r="D230" s="13">
         <v>3</v>
@@ -16584,13 +16584,13 @@
     </row>
     <row r="231" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B231" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D231" s="13">
         <v>8</v>
@@ -16648,13 +16648,13 @@
     </row>
     <row r="232" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B232" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D232" s="13">
         <v>4</v>
@@ -16705,20 +16705,20 @@
         <v>27</v>
       </c>
       <c r="T232" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U232" s="12"/>
       <c r="V232" s="20"/>
     </row>
     <row r="233" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="B233" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C233" s="12" t="s">
-        <v>314</v>
       </c>
       <c r="D233" s="13">
         <v>7</v>
@@ -16776,13 +16776,13 @@
     </row>
     <row r="234" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B234" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D234" s="13">
         <v>4</v>
@@ -16840,13 +16840,13 @@
     </row>
     <row r="235" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B235" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D235" s="13">
         <v>36</v>
@@ -16904,13 +16904,13 @@
     </row>
     <row r="236" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B236" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D236" s="13">
         <v>1</v>
@@ -16968,13 +16968,13 @@
     </row>
     <row r="237" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B237" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D237" s="13">
         <v>1</v>
@@ -17032,13 +17032,13 @@
     </row>
     <row r="238" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C238" s="12" t="s">
         <v>317</v>
-      </c>
-      <c r="B238" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C238" s="12" t="s">
-        <v>320</v>
       </c>
       <c r="D238" s="13">
         <v>2</v>
@@ -17096,13 +17096,13 @@
     </row>
     <row r="239" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B239" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D239" s="13">
         <v>28</v>
@@ -17160,13 +17160,13 @@
     </row>
     <row r="240" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B240" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D240" s="13">
         <v>2</v>
@@ -17224,13 +17224,13 @@
     </row>
     <row r="241" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D241" s="13">
         <v>33</v>
@@ -17288,13 +17288,13 @@
     </row>
     <row r="242" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B242" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B242" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="C242" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D242" s="13">
         <v>9</v>
@@ -17352,13 +17352,13 @@
     </row>
     <row r="243" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B243" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B243" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="C243" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D243" s="13">
         <v>27</v>
@@ -17416,13 +17416,13 @@
     </row>
     <row r="244" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B244" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B244" s="11" t="s">
+      <c r="C244" s="12" t="s">
         <v>326</v>
-      </c>
-      <c r="C244" s="12" t="s">
-        <v>329</v>
       </c>
       <c r="D244" s="13">
         <v>4</v>
@@ -17480,13 +17480,13 @@
     </row>
     <row r="245" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D245" s="13">
         <v>2</v>
@@ -17544,13 +17544,13 @@
     </row>
     <row r="246" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D246" s="13">
         <v>16</v>
@@ -17608,13 +17608,13 @@
     </row>
     <row r="247" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B247" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C247" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="C247" s="12" t="s">
-        <v>333</v>
       </c>
       <c r="D247" s="13">
         <v>3</v>
@@ -17670,13 +17670,13 @@
     </row>
     <row r="248" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D248" s="13">
         <v>12</v>
@@ -17734,13 +17734,13 @@
     </row>
     <row r="249" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D249" s="13">
         <v>1</v>
@@ -17798,13 +17798,13 @@
     </row>
     <row r="250" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D250" s="13">
         <v>1</v>
@@ -17862,13 +17862,13 @@
     </row>
     <row r="251" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D251" s="13">
         <v>2</v>
@@ -17926,13 +17926,13 @@
     </row>
     <row r="252" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B252" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D252" s="13">
         <v>1</v>
@@ -17990,13 +17990,13 @@
     </row>
     <row r="253" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B253" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D253" s="13">
         <v>19</v>
@@ -18054,13 +18054,13 @@
     </row>
     <row r="254" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B254" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C254" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="C254" s="12" t="s">
-        <v>341</v>
       </c>
       <c r="D254" s="13">
         <v>6</v>
@@ -18118,13 +18118,13 @@
     </row>
     <row r="255" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B255" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D255" s="13">
         <v>1</v>
@@ -18182,13 +18182,13 @@
     </row>
     <row r="256" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B256" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D256" s="13">
         <v>15</v>
@@ -18246,13 +18246,13 @@
     </row>
     <row r="257" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B257" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D257" s="13">
         <v>5</v>
@@ -18310,13 +18310,13 @@
     </row>
     <row r="258" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B258" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D258" s="13">
         <v>1</v>
@@ -18374,13 +18374,13 @@
     </row>
     <row r="259" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B259" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D259" s="13">
         <v>7</v>
@@ -18438,13 +18438,13 @@
     </row>
     <row r="260" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B260" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D260" s="13">
         <v>8</v>
@@ -18502,13 +18502,13 @@
     </row>
     <row r="261" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B261" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D261" s="13">
         <v>12</v>
@@ -18566,13 +18566,13 @@
     </row>
     <row r="262" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B262" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D262" s="13">
         <v>68</v>
@@ -18630,13 +18630,13 @@
     </row>
     <row r="263" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B263" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D263" s="13">
         <v>4</v>
@@ -18694,13 +18694,13 @@
     </row>
     <row r="264" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B264" s="29" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D264" s="13">
         <v>8</v>
@@ -18758,13 +18758,13 @@
     </row>
     <row r="265" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B265" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D265" s="13">
         <v>1</v>
@@ -18822,13 +18822,13 @@
     </row>
     <row r="266" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B266" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D266" s="13">
         <v>6</v>
@@ -18886,13 +18886,13 @@
     </row>
     <row r="267" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C267" s="12" t="s">
         <v>352</v>
-      </c>
-      <c r="B267" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C267" s="12" t="s">
-        <v>355</v>
       </c>
       <c r="D267" s="13">
         <v>2</v>
@@ -18950,13 +18950,13 @@
     </row>
     <row r="268" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B268" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D268" s="13">
         <v>3</v>
@@ -19012,13 +19012,13 @@
     </row>
     <row r="269" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B269" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D269" s="13">
         <v>1</v>
@@ -19076,13 +19076,13 @@
     </row>
     <row r="270" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B270" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D270" s="13">
         <v>22</v>
@@ -19140,13 +19140,13 @@
     </row>
     <row r="271" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B271" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D271" s="13">
         <v>3</v>
@@ -19202,13 +19202,13 @@
     </row>
     <row r="272" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B272" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D272" s="13">
         <v>1</v>
@@ -19266,13 +19266,13 @@
     </row>
     <row r="273" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B273" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D273" s="13">
         <v>6</v>
@@ -19330,13 +19330,13 @@
     </row>
     <row r="274" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B274" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D274" s="13">
         <v>2</v>
@@ -19394,13 +19394,13 @@
     </row>
     <row r="275" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B275" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D275" s="13">
         <v>3</v>
@@ -19456,13 +19456,13 @@
     </row>
     <row r="276" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B276" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D276" s="13">
         <v>2</v>
@@ -19520,13 +19520,13 @@
     </row>
     <row r="277" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B277" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D277" s="13">
         <v>3</v>
@@ -19582,13 +19582,13 @@
     </row>
     <row r="278" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B278" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D278" s="13">
         <v>6</v>
@@ -19646,13 +19646,13 @@
     </row>
     <row r="279" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B279" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D279" s="13">
         <v>6</v>
@@ -19710,13 +19710,13 @@
     </row>
     <row r="280" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B280" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D280" s="13">
         <v>2</v>
@@ -19774,13 +19774,13 @@
     </row>
     <row r="281" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B281" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D281" s="13">
         <v>23</v>
@@ -19838,13 +19838,13 @@
     </row>
     <row r="282" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B282" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D282" s="13">
         <v>1</v>
@@ -19902,13 +19902,13 @@
     </row>
     <row r="283" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B283" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D283" s="13">
         <v>1</v>
@@ -19966,13 +19966,13 @@
     </row>
     <row r="284" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B284" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D284" s="13">
         <v>2</v>
@@ -20030,13 +20030,13 @@
     </row>
     <row r="285" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B285" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D285" s="13">
         <v>2</v>
@@ -20094,13 +20094,13 @@
     </row>
     <row r="286" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B286" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D286" s="13">
         <v>1</v>
@@ -20158,13 +20158,13 @@
     </row>
     <row r="287" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B287" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D287" s="13">
         <v>1</v>
@@ -20222,13 +20222,13 @@
     </row>
     <row r="288" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B288" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D288" s="13">
         <v>1</v>
@@ -20286,13 +20286,13 @@
     </row>
     <row r="289" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B289" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D289" s="13">
         <v>26</v>
@@ -20350,13 +20350,13 @@
     </row>
     <row r="290" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B290" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D290" s="13">
         <v>5</v>
@@ -20414,13 +20414,13 @@
     </row>
     <row r="291" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B291" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D291" s="13">
         <v>5</v>
@@ -20478,13 +20478,13 @@
     </row>
     <row r="292" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B292" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D292" s="13">
         <v>3</v>
@@ -20540,13 +20540,13 @@
     </row>
     <row r="293" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B293" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D293" s="13">
         <v>2</v>
@@ -20604,13 +20604,13 @@
     </row>
     <row r="294" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B294" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="D294" s="13">
         <v>2</v>
@@ -20668,13 +20668,13 @@
     </row>
     <row r="295" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B295" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D295" s="13">
         <v>21</v>
@@ -20732,13 +20732,13 @@
     </row>
     <row r="296" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B296" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D296" s="13">
         <v>6</v>
@@ -20796,13 +20796,13 @@
     </row>
     <row r="297" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B297" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D297" s="13">
         <v>2</v>
@@ -20860,13 +20860,13 @@
     </row>
     <row r="298" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B298" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D298" s="13">
         <v>2</v>
@@ -20924,13 +20924,13 @@
     </row>
     <row r="299" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B299" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D299" s="13">
         <v>6</v>
@@ -20988,13 +20988,13 @@
     </row>
     <row r="300" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B300" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D300" s="13">
         <v>1</v>
@@ -21052,13 +21052,13 @@
     </row>
     <row r="301" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B301" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D301" s="13">
         <v>1</v>
@@ -21116,13 +21116,13 @@
     </row>
     <row r="302" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C302" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="B302" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C302" s="12" t="s">
-        <v>391</v>
       </c>
       <c r="D302" s="13">
         <v>4</v>
@@ -21180,13 +21180,13 @@
     </row>
     <row r="303" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B303" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D303" s="13">
         <v>3</v>
@@ -21242,13 +21242,13 @@
     </row>
     <row r="304" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B304" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D304" s="13">
         <v>1</v>
@@ -21306,13 +21306,13 @@
     </row>
     <row r="305" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B305" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D305" s="13">
         <v>1</v>
@@ -21370,13 +21370,13 @@
     </row>
     <row r="306" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B306" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D306" s="13">
         <v>1</v>
@@ -21434,13 +21434,13 @@
     </row>
     <row r="307" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B307" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D307" s="13">
         <v>4</v>
@@ -21498,13 +21498,13 @@
     </row>
     <row r="308" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B308" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D308" s="13">
         <v>2</v>
@@ -21562,13 +21562,13 @@
     </row>
     <row r="309" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B309" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D309" s="13">
         <v>2</v>
@@ -21626,13 +21626,13 @@
     </row>
     <row r="310" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B310" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D310" s="13">
         <v>4</v>
@@ -21690,13 +21690,13 @@
     </row>
     <row r="311" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="12" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B311" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D311" s="13">
         <v>1</v>
@@ -21754,13 +21754,13 @@
     </row>
     <row r="312" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="12" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B312" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D312" s="13">
         <v>1</v>
@@ -21818,13 +21818,13 @@
     </row>
     <row r="313" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="12" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B313" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D313" s="13">
         <v>1</v>
@@ -21882,13 +21882,13 @@
     </row>
     <row r="314" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B314" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C314" s="12" t="s">
         <v>400</v>
-      </c>
-      <c r="B314" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C314" s="12" t="s">
-        <v>404</v>
       </c>
       <c r="D314" s="13">
         <v>6</v>
@@ -21946,13 +21946,13 @@
     </row>
     <row r="315" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="12" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B315" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D315" s="13">
         <v>6</v>
@@ -22010,13 +22010,13 @@
     </row>
     <row r="316" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="12" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B316" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D316" s="13">
         <v>1</v>
@@ -22074,13 +22074,13 @@
     </row>
     <row r="317" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="12" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B317" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D317" s="13">
         <v>5</v>
@@ -22138,13 +22138,13 @@
     </row>
     <row r="318" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B318" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="B318" s="11" t="s">
-        <v>409</v>
-      </c>
       <c r="C318" s="12" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D318" s="13">
         <v>7</v>
@@ -22202,13 +22202,13 @@
     </row>
     <row r="319" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="12" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D319" s="13">
         <v>2</v>
@@ -22266,13 +22266,13 @@
     </row>
     <row r="320" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="12" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D320" s="13">
         <v>2</v>
@@ -22330,13 +22330,13 @@
     </row>
     <row r="321" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="12" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D321" s="13">
         <v>3</v>
@@ -22392,13 +22392,13 @@
     </row>
     <row r="322" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="12" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D322" s="13">
         <v>18</v>
@@ -22456,13 +22456,13 @@
     </row>
     <row r="323" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="12" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B323" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D323" s="13">
         <v>1</v>
@@ -22520,13 +22520,13 @@
     </row>
     <row r="324" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="12" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B324" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D324" s="13">
         <v>4</v>
